--- a/user.xlsx
+++ b/user.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Email</t>
+  </si>
   <si>
     <t>mishra.38@iitj.ac.in</t>
   </si>
@@ -310,6 +313,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
